--- a/CODEBOOK.xlsx
+++ b/CODEBOOK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Des/R_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD91B10-6C19-514A-A5A4-3BFA7A1ADAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B67BC2-029D-8A45-BD3D-7158DF1B354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="20800" windowHeight="16660" xr2:uid="{0BC83DE6-4229-D54A-9A9A-B0C2D2A7D946}"/>
+    <workbookView xWindow="9200" yWindow="760" windowWidth="20800" windowHeight="16660" xr2:uid="{0BC83DE6-4229-D54A-9A9A-B0C2D2A7D946}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,15 +62,9 @@
     <t>index.html</t>
   </si>
   <si>
-    <t>WorldLifeExp.xlsx - Raw data obtained from World Bank Group (1990-2023)</t>
-  </si>
-  <si>
     <t>Sub-files</t>
   </si>
   <si>
-    <t>Raw Data</t>
-  </si>
-  <si>
     <t>animated_plot.gif, initialgraph.png, secondgraph.png</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>Bahamas, Republic of the Congo, Democratic Republic of the Congo, Egypt, Gambia, Hong Kong, South Korea, Iran, North korea, Laos, Kyrgyzstan, Micronesia (Federated States of), Russia, Syria, Venezuela, Yemen, Vietnam</t>
+  </si>
+  <si>
+    <t>WorldLifeExp.xlsx, cleaneddata.csv, finalcleaneddata.csv</t>
+  </si>
+  <si>
+    <t>WorldLifeExp.xlsx - Raw data obtained from World Bank Group (1990-2023), cleaneddata.csv - data after first round of cleaning, finalcleaneddata.csv - data that has been cleaned and formatted accordingly and used to plot the graphs</t>
   </si>
 </sst>
 </file>
@@ -557,14 +557,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="178.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="189.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -583,10 +583,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,102 +629,102 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
